--- a/SampleSpreadSheetApp/assets/files/Parent.xlsx
+++ b/SampleSpreadSheetApp/assets/files/Parent.xlsx
@@ -455,28 +455,28 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>4000</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="C2" s="0">
-        <x:v>700</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D2" s="0">
-        <x:v>700</x:v>
+        <x:v>1441</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>900</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="F2" s="0">
-        <x:v>700</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="G2" s="0">
-        <x:v>800</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="H2" s="0">
-        <x:v>70</x:v>
+        <x:v>1221</x:v>
       </x:c>
       <x:c r="I2" s="0">
-        <x:v>100</x:v>
+        <x:v>2341</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -484,25 +484,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>10</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="C3" s="0">
-        <x:v>110</x:v>
+        <x:v>4256</x:v>
       </x:c>
       <x:c r="D3" s="0">
-        <x:v>20</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>100</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="F3" s="0">
-        <x:v>10</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="G3" s="0">
-        <x:v>210</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="H3" s="0">
-        <x:v>0</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -510,28 +510,28 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>4010</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="C4" s="0">
-        <x:v>810</x:v>
+        <x:v>4508</x:v>
       </x:c>
       <x:c r="D4" s="0">
-        <x:v>720</x:v>
+        <x:v>2815</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>1000</x:v>
+        <x:v>1202</x:v>
       </x:c>
       <x:c r="F4" s="0">
-        <x:v>710</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="G4" s="0">
-        <x:v>1010</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="H4" s="0">
-        <x:v>70</x:v>
+        <x:v>1435</x:v>
       </x:c>
       <x:c r="I4" s="0">
-        <x:v>100</x:v>
+        <x:v>2341</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
